--- a/Outputs/3. Prosumer percentage/Base Cases/60/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/60/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1904913.076423798</v>
+        <v>1904913.076423797</v>
       </c>
     </row>
     <row r="7">
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.35516257576529</v>
+        <v>80.35516257576523</v>
       </c>
       <c r="C41" t="n">
-        <v>73.10911080358107</v>
+        <v>73.10911080358102</v>
       </c>
       <c r="D41" t="n">
-        <v>65.45208181698132</v>
+        <v>65.45208181698126</v>
       </c>
       <c r="E41" t="n">
-        <v>82.42305395610327</v>
+        <v>82.42305395610322</v>
       </c>
       <c r="F41" t="n">
-        <v>96.59085840680439</v>
+        <v>96.59085840680433</v>
       </c>
       <c r="G41" t="n">
-        <v>92.89649227835923</v>
+        <v>92.89649227835918</v>
       </c>
       <c r="H41" t="n">
-        <v>4.707584250656623</v>
+        <v>4.707584250656566</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>22.55110552499917</v>
+        <v>22.55110552499912</v>
       </c>
       <c r="W41" t="n">
-        <v>51.1544090028778</v>
+        <v>51.15440900287774</v>
       </c>
       <c r="X41" t="n">
-        <v>69.42344333775611</v>
+        <v>69.42344333775605</v>
       </c>
       <c r="Y41" t="n">
-        <v>76.39116631008727</v>
+        <v>76.39116631008721</v>
       </c>
     </row>
     <row r="42">
@@ -25868,7 +25868,7 @@
         <v>198.5694674570052</v>
       </c>
       <c r="D44" t="n">
-        <v>190.9124384704055</v>
+        <v>190.9124384704054</v>
       </c>
       <c r="E44" t="n">
         <v>207.8834106095274</v>
@@ -25916,19 +25916,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.59131739108403</v>
+        <v>30.591317391084</v>
       </c>
       <c r="U44" t="n">
-        <v>62.52092324465391</v>
+        <v>62.52092324465389</v>
       </c>
       <c r="V44" t="n">
         <v>148.0114621784233</v>
       </c>
       <c r="W44" t="n">
-        <v>176.614765656302</v>
+        <v>176.6147656563019</v>
       </c>
       <c r="X44" t="n">
-        <v>194.8837999911803</v>
+        <v>194.8837999911802</v>
       </c>
       <c r="Y44" t="n">
         <v>201.8515229635114</v>
@@ -25998,13 +25998,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>17.28823286305115</v>
+        <v>17.28823286305112</v>
       </c>
       <c r="V45" t="n">
-        <v>29.64032258755017</v>
+        <v>29.64032258755014</v>
       </c>
       <c r="W45" t="n">
-        <v>37.14179438295255</v>
+        <v>37.14179438295253</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.11364395418266</v>
+        <v>10.11364395418263</v>
       </c>
       <c r="T46" t="n">
-        <v>42.68758228835475</v>
+        <v>42.68758228835472</v>
       </c>
       <c r="U46" t="n">
-        <v>91.91012481542461</v>
+        <v>91.91012481542458</v>
       </c>
       <c r="V46" t="n">
-        <v>72.64527270229055</v>
+        <v>72.64527270229053</v>
       </c>
       <c r="W46" t="n">
-        <v>89.82281902304069</v>
+        <v>89.82281902304067</v>
       </c>
       <c r="X46" t="n">
-        <v>41.06523996975326</v>
+        <v>41.06523996975324</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.20666154642961</v>
+        <v>30.20666154642959</v>
       </c>
     </row>
   </sheetData>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498307.7825247109</v>
+        <v>498307.782524711</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>719596.8852588682</v>
+        <v>719596.8852588681</v>
       </c>
       <c r="C2" t="n">
-        <v>719596.8852588682</v>
+        <v>719596.8852588681</v>
       </c>
       <c r="D2" t="n">
-        <v>719596.8852588682</v>
+        <v>719596.8852588681</v>
       </c>
       <c r="E2" t="n">
         <v>668532.33746949</v>
@@ -26326,34 +26326,34 @@
         <v>712331.9450634401</v>
       </c>
       <c r="G2" t="n">
-        <v>714544.7877028158</v>
+        <v>714544.7877028157</v>
       </c>
       <c r="H2" t="n">
-        <v>714544.7877028158</v>
+        <v>714544.7877028157</v>
       </c>
       <c r="I2" t="n">
-        <v>714544.7877028158</v>
+        <v>714544.7877028157</v>
       </c>
       <c r="J2" t="n">
         <v>668532.33746949</v>
       </c>
       <c r="K2" t="n">
-        <v>714544.7877028158</v>
+        <v>714544.7877028157</v>
       </c>
       <c r="L2" t="n">
-        <v>717611.3205760834</v>
+        <v>717611.3205760831</v>
       </c>
       <c r="M2" t="n">
-        <v>717611.3205760834</v>
+        <v>717611.3205760831</v>
       </c>
       <c r="N2" t="n">
-        <v>717611.3205760834</v>
+        <v>717611.3205760831</v>
       </c>
       <c r="O2" t="n">
         <v>664410.376699615</v>
       </c>
       <c r="P2" t="n">
-        <v>534498.1389631418</v>
+        <v>534498.1389631419</v>
       </c>
     </row>
     <row r="3">
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>143788.15562559</v>
+        <v>143788.1556255901</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,19 +26430,19 @@
         <v>406575.6211176545</v>
       </c>
       <c r="G4" t="n">
-        <v>407838.6388396235</v>
+        <v>407838.6388396236</v>
       </c>
       <c r="H4" t="n">
-        <v>407838.6388396235</v>
+        <v>407838.6388396236</v>
       </c>
       <c r="I4" t="n">
-        <v>407838.6388396235</v>
+        <v>407838.6388396236</v>
       </c>
       <c r="J4" t="n">
         <v>381576.2471802217</v>
       </c>
       <c r="K4" t="n">
-        <v>407838.6388396235</v>
+        <v>407838.6388396236</v>
       </c>
       <c r="L4" t="n">
         <v>409588.9148398321</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275247.0754716916</v>
+        <v>275247.0754716914</v>
       </c>
       <c r="C6" t="n">
-        <v>275247.0754716916</v>
+        <v>275247.0754716914</v>
       </c>
       <c r="D6" t="n">
-        <v>275247.0754716916</v>
+        <v>275247.0754716914</v>
       </c>
       <c r="E6" t="n">
-        <v>3309.429758703209</v>
+        <v>3309.429758703151</v>
       </c>
       <c r="F6" t="n">
         <v>225081.1121395968</v>
       </c>
       <c r="G6" t="n">
-        <v>271115.5775017533</v>
+        <v>271115.5775017532</v>
       </c>
       <c r="H6" t="n">
-        <v>274292.6667183732</v>
+        <v>274292.666718373</v>
       </c>
       <c r="I6" t="n">
-        <v>274292.6667183732</v>
+        <v>274292.666718373</v>
       </c>
       <c r="J6" t="n">
-        <v>55082.11702838277</v>
+        <v>55082.11702838272</v>
       </c>
       <c r="K6" t="n">
-        <v>173924.3813956338</v>
+        <v>173924.3813956337</v>
       </c>
       <c r="L6" t="n">
-        <v>266271.8864943865</v>
+        <v>266271.8864943863</v>
       </c>
       <c r="M6" t="n">
-        <v>275023.1540888713</v>
+        <v>275023.154088871</v>
       </c>
       <c r="N6" t="n">
-        <v>275023.1540888713</v>
+        <v>275023.154088871</v>
       </c>
       <c r="O6" t="n">
         <v>114821.5307011743</v>
       </c>
       <c r="P6" t="n">
-        <v>213394.4033271529</v>
+        <v>213394.4033271531</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>392.5258019886049</v>
       </c>
       <c r="O2" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="P2" t="n">
         <v>190.6742790250935</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>179.7351945319875</v>
+        <v>179.7351945319876</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="C41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="D41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="E41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="F41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="G41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="H41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -30517,16 +30517,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="W41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="X41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
       <c r="Y41" t="n">
-        <v>316.1346356785176</v>
+        <v>316.1346356785177</v>
       </c>
     </row>
     <row r="42">

--- a/Outputs/3. Prosumer percentage/Base Cases/60/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/60/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1904913.076423797</v>
+        <v>1878287.889793084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1004554.454050284</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6054322.367269735</v>
+        <v>6163572.58354078</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.64757832510867</v>
+        <v>29.20075357288749</v>
       </c>
       <c r="C11" t="n">
-        <v>68.40152655292445</v>
+        <v>21.95470180070328</v>
       </c>
       <c r="D11" t="n">
-        <v>60.7444975663247</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="E11" t="n">
-        <v>77.71546970544665</v>
+        <v>31.26864495322548</v>
       </c>
       <c r="F11" t="n">
-        <v>91.88327415614776</v>
+        <v>45.43644940392659</v>
       </c>
       <c r="G11" t="n">
-        <v>88.18890802770261</v>
+        <v>41.74208327548143</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>17.84352127434255</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>46.44682475222118</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>64.71585908709949</v>
+        <v>18.26903433487831</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.68358205943065</v>
+        <v>25.23675730720947</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.90308075878397</v>
+        <v>29.20075357288749</v>
       </c>
       <c r="C14" t="n">
-        <v>7.657028986599755</v>
+        <v>21.95470180070328</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="E14" t="n">
-        <v>16.97097213912195</v>
+        <v>31.26864495322548</v>
       </c>
       <c r="F14" t="n">
-        <v>31.13877658982307</v>
+        <v>45.43644940392659</v>
       </c>
       <c r="G14" t="n">
-        <v>27.44441046137791</v>
+        <v>41.74208327548143</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.971361520774792</v>
+        <v>18.26903433487831</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.93908449310595</v>
+        <v>25.23675730720947</v>
       </c>
     </row>
     <row r="15">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.93171923800918</v>
+        <v>14.90308075878397</v>
       </c>
       <c r="C17" t="n">
-        <v>3.685667465824963</v>
+        <v>7.657028986599755</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>12.99961061834716</v>
+        <v>16.97097213912195</v>
       </c>
       <c r="F17" t="n">
-        <v>27.16741506904827</v>
+        <v>31.13877658982307</v>
       </c>
       <c r="G17" t="n">
-        <v>23.47304894060312</v>
+        <v>27.44441046137791</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>3.971361520774792</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.96772297233116</v>
+        <v>10.93908449310595</v>
       </c>
     </row>
     <row r="18">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.93171923800918</v>
+        <v>14.90308075878397</v>
       </c>
       <c r="C20" t="n">
-        <v>3.685667465824963</v>
+        <v>7.657028986599755</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12.99961061834716</v>
+        <v>16.97097213912195</v>
       </c>
       <c r="F20" t="n">
-        <v>27.16741506904827</v>
+        <v>31.13877658982307</v>
       </c>
       <c r="G20" t="n">
-        <v>23.47304894060312</v>
+        <v>27.44441046137791</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3.971361520774792</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.96772297233116</v>
+        <v>10.93908449310595</v>
       </c>
     </row>
     <row r="21">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.93171923800918</v>
+        <v>14.90308075878397</v>
       </c>
       <c r="C23" t="n">
-        <v>3.685667465824963</v>
+        <v>7.657028986599755</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>12.99961061834716</v>
+        <v>16.97097213912195</v>
       </c>
       <c r="F23" t="n">
-        <v>27.16741506904827</v>
+        <v>31.13877658982307</v>
       </c>
       <c r="G23" t="n">
-        <v>23.47304894060312</v>
+        <v>27.44441046137791</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.971361520774792</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.96772297233116</v>
+        <v>10.93908449310595</v>
       </c>
     </row>
     <row r="24">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.64757832510867</v>
+        <v>29.20075357288749</v>
       </c>
       <c r="C26" t="n">
-        <v>68.40152655292445</v>
+        <v>21.95470180070328</v>
       </c>
       <c r="D26" t="n">
-        <v>60.7444975663247</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="E26" t="n">
-        <v>77.71546970544665</v>
+        <v>31.26864495322548</v>
       </c>
       <c r="F26" t="n">
-        <v>91.88327415614776</v>
+        <v>45.43644940392659</v>
       </c>
       <c r="G26" t="n">
-        <v>88.18890802770261</v>
+        <v>41.74208327548143</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>17.84352127434255</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>46.44682475222118</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>64.71585908709949</v>
+        <v>18.26903433487831</v>
       </c>
       <c r="Y26" t="n">
-        <v>71.68358205943065</v>
+        <v>25.23675730720947</v>
       </c>
     </row>
     <row r="27">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.93171923800918</v>
+        <v>29.20075357288749</v>
       </c>
       <c r="C29" t="n">
-        <v>3.685667465824963</v>
+        <v>21.95470180070328</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="E29" t="n">
-        <v>12.99961061834716</v>
+        <v>31.26864495322548</v>
       </c>
       <c r="F29" t="n">
-        <v>27.16741506904827</v>
+        <v>45.43644940392659</v>
       </c>
       <c r="G29" t="n">
-        <v>23.47304894060312</v>
+        <v>41.74208327548143</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>18.26903433487831</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.96772297233116</v>
+        <v>25.23675730720947</v>
       </c>
     </row>
     <row r="30">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.96399626567802</v>
+        <v>14.90308075878397</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>7.657028986599755</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.031887646016003</v>
+        <v>16.97097213912195</v>
       </c>
       <c r="F32" t="n">
-        <v>20.19969209671711</v>
+        <v>31.13877658982307</v>
       </c>
       <c r="G32" t="n">
-        <v>16.50532596827196</v>
+        <v>27.44441046137791</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.971361520774792</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>10.93908449310595</v>
       </c>
     </row>
     <row r="33">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.96399626567802</v>
+        <v>14.90308075878397</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.657028986599755</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.031887646016003</v>
+        <v>16.97097213912195</v>
       </c>
       <c r="F35" t="n">
-        <v>20.19969209671711</v>
+        <v>31.13877658982307</v>
       </c>
       <c r="G35" t="n">
-        <v>16.50532596827196</v>
+        <v>27.44441046137791</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>3.971361520774792</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>10.93908449310595</v>
       </c>
     </row>
     <row r="36">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.96399626567802</v>
+        <v>14.90308075878397</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7.657028986599755</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.031887646016003</v>
+        <v>16.97097213912195</v>
       </c>
       <c r="F38" t="n">
-        <v>20.19969209671711</v>
+        <v>31.13877658982307</v>
       </c>
       <c r="G38" t="n">
-        <v>16.50532596827196</v>
+        <v>27.44441046137791</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>3.971361520774792</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>10.93908449310595</v>
       </c>
     </row>
     <row r="39">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.35516257576523</v>
+        <v>29.20075357288749</v>
       </c>
       <c r="C41" t="n">
-        <v>73.10911080358102</v>
+        <v>21.95470180070328</v>
       </c>
       <c r="D41" t="n">
-        <v>65.45208181698126</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="E41" t="n">
-        <v>82.42305395610322</v>
+        <v>31.26864495322548</v>
       </c>
       <c r="F41" t="n">
-        <v>96.59085840680433</v>
+        <v>45.43644940392659</v>
       </c>
       <c r="G41" t="n">
-        <v>92.89649227835918</v>
+        <v>41.74208327548143</v>
       </c>
       <c r="H41" t="n">
-        <v>4.707584250656566</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>22.55110552499912</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>51.15440900287774</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>69.42344333775605</v>
+        <v>18.26903433487831</v>
       </c>
       <c r="Y41" t="n">
-        <v>76.39116631008721</v>
+        <v>25.23675730720947</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.8155192291894</v>
+        <v>29.20075357288749</v>
       </c>
       <c r="C44" t="n">
-        <v>198.5694674570052</v>
+        <v>21.95470180070328</v>
       </c>
       <c r="D44" t="n">
-        <v>190.9124384704054</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="E44" t="n">
-        <v>207.8834106095274</v>
+        <v>31.26864495322548</v>
       </c>
       <c r="F44" t="n">
-        <v>222.0512150602285</v>
+        <v>45.43644940392659</v>
       </c>
       <c r="G44" t="n">
-        <v>218.3568489317834</v>
+        <v>41.74208327548143</v>
       </c>
       <c r="H44" t="n">
-        <v>130.1679409040808</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.591317391084</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>62.52092324465389</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>148.0114621784233</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>176.6147656563019</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>194.8837999911802</v>
+        <v>18.26903433487831</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.8515229635114</v>
+        <v>25.23675730720947</v>
       </c>
     </row>
     <row r="45">
@@ -25998,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>17.28823286305112</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>29.64032258755014</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>37.14179438295253</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.11364395418263</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>42.68758228835472</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>91.91012481542458</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>72.64527270229053</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>89.82281902304067</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>41.06523996975324</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.20666154642959</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501399.2531021171</v>
+        <v>527420.3902615638</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534248.9587975797</v>
+        <v>527420.3902615638</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>535908.5907771115</v>
+        <v>534248.9587975797</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>535908.5907771115</v>
+        <v>534248.9587975797</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>535908.5907771115</v>
+        <v>534248.9587975797</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>501399.2531021171</v>
+        <v>527420.3902615638</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>535908.5907771115</v>
+        <v>527420.3902615638</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>538208.4904320621</v>
+        <v>534248.9587975797</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>538208.4904320621</v>
+        <v>534248.9587975797</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>538208.4904320621</v>
+        <v>534248.9587975797</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498307.782524711</v>
+        <v>527420.3902615638</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>400873.6042223562</v>
+        <v>527420.3902615638</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>719596.8852588681</v>
       </c>
       <c r="E2" t="n">
-        <v>668532.33746949</v>
+        <v>703227.1870154189</v>
       </c>
       <c r="F2" t="n">
+        <v>703227.1870154189</v>
+      </c>
+      <c r="G2" t="n">
         <v>712331.9450634401</v>
       </c>
-      <c r="G2" t="n">
-        <v>714544.7877028157</v>
-      </c>
       <c r="H2" t="n">
-        <v>714544.7877028157</v>
+        <v>712331.9450634401</v>
       </c>
       <c r="I2" t="n">
-        <v>714544.7877028157</v>
+        <v>712331.9450634401</v>
       </c>
       <c r="J2" t="n">
-        <v>668532.33746949</v>
+        <v>703227.1870154189</v>
       </c>
       <c r="K2" t="n">
-        <v>714544.7877028157</v>
+        <v>703227.1870154189</v>
       </c>
       <c r="L2" t="n">
-        <v>717611.3205760831</v>
+        <v>712331.9450634401</v>
       </c>
       <c r="M2" t="n">
-        <v>717611.3205760831</v>
+        <v>712331.9450634401</v>
       </c>
       <c r="N2" t="n">
-        <v>717611.3205760831</v>
+        <v>712331.9450634401</v>
       </c>
       <c r="O2" t="n">
-        <v>664410.376699615</v>
+        <v>703227.1870154189</v>
       </c>
       <c r="P2" t="n">
-        <v>534498.1389631419</v>
+        <v>703227.1870154189</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256673.7759433394</v>
+        <v>293831.2357451163</v>
       </c>
       <c r="F3" t="n">
-        <v>48595.59805305976</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3177.089216619834</v>
+        <v>11438.13825128282</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204901.0886736598</v>
+        <v>282393.0974938335</v>
       </c>
       <c r="K3" t="n">
-        <v>100368.2853227393</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8751.267594484762</v>
+        <v>22876.27650256563</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>143788.1556255901</v>
+        <v>270954.9592425507</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>410722.2097871767</v>
       </c>
       <c r="E4" t="n">
-        <v>381576.2471802217</v>
+        <v>401378.9249928296</v>
       </c>
       <c r="F4" t="n">
+        <v>401378.9249928296</v>
+      </c>
+      <c r="G4" t="n">
         <v>406575.6211176545</v>
       </c>
-      <c r="G4" t="n">
-        <v>407838.6388396236</v>
-      </c>
       <c r="H4" t="n">
-        <v>407838.6388396236</v>
+        <v>406575.6211176545</v>
       </c>
       <c r="I4" t="n">
-        <v>407838.6388396236</v>
+        <v>406575.6211176545</v>
       </c>
       <c r="J4" t="n">
-        <v>381576.2471802217</v>
+        <v>401378.9249928296</v>
       </c>
       <c r="K4" t="n">
-        <v>407838.6388396236</v>
+        <v>401378.9249928296</v>
       </c>
       <c r="L4" t="n">
-        <v>409588.9148398321</v>
+        <v>406575.6211176545</v>
       </c>
       <c r="M4" t="n">
-        <v>409588.9148398321</v>
+        <v>406575.6211176545</v>
       </c>
       <c r="N4" t="n">
-        <v>409588.9148398321</v>
+        <v>406575.6211176545</v>
       </c>
       <c r="O4" t="n">
-        <v>379223.5676859934</v>
+        <v>401378.9249928296</v>
       </c>
       <c r="P4" t="n">
-        <v>305073.9396726283</v>
+        <v>401378.9249928296</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26972.88458722575</v>
+        <v>30877.62269732023</v>
       </c>
       <c r="F5" t="n">
+        <v>30877.62269732023</v>
+      </c>
+      <c r="G5" t="n">
         <v>32079.6137531291</v>
       </c>
-      <c r="G5" t="n">
-        <v>32413.48214481912</v>
-      </c>
       <c r="H5" t="n">
-        <v>32413.48214481912</v>
+        <v>32079.6137531291</v>
       </c>
       <c r="I5" t="n">
-        <v>32413.48214481912</v>
+        <v>32079.6137531291</v>
       </c>
       <c r="J5" t="n">
-        <v>26972.88458722575</v>
+        <v>30877.62269732023</v>
       </c>
       <c r="K5" t="n">
-        <v>32413.48214481912</v>
+        <v>30877.62269732023</v>
       </c>
       <c r="L5" t="n">
-        <v>32999.25164738003</v>
+        <v>32079.6137531291</v>
       </c>
       <c r="M5" t="n">
-        <v>32999.25164738003</v>
+        <v>32079.6137531291</v>
       </c>
       <c r="N5" t="n">
-        <v>32999.25164738003</v>
+        <v>32079.6137531291</v>
       </c>
       <c r="O5" t="n">
-        <v>26577.1226868573</v>
+        <v>30877.62269732023</v>
       </c>
       <c r="P5" t="n">
-        <v>16029.79596336058</v>
+        <v>30877.62269732023</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>275247.0754716914</v>
       </c>
       <c r="E6" t="n">
-        <v>3309.429758703151</v>
+        <v>-22860.59641984721</v>
       </c>
       <c r="F6" t="n">
-        <v>225081.1121395968</v>
+        <v>270970.6393252691</v>
       </c>
       <c r="G6" t="n">
-        <v>271115.5775017532</v>
+        <v>262238.5719413738</v>
       </c>
       <c r="H6" t="n">
-        <v>274292.666718373</v>
+        <v>273676.7101926566</v>
       </c>
       <c r="I6" t="n">
-        <v>274292.666718373</v>
+        <v>273676.7101926566</v>
       </c>
       <c r="J6" t="n">
-        <v>55082.11702838272</v>
+        <v>-11422.45816856436</v>
       </c>
       <c r="K6" t="n">
-        <v>173924.3813956337</v>
+        <v>270970.6393252691</v>
       </c>
       <c r="L6" t="n">
-        <v>266271.8864943863</v>
+        <v>250800.433690091</v>
       </c>
       <c r="M6" t="n">
-        <v>275023.154088871</v>
+        <v>273676.7101926566</v>
       </c>
       <c r="N6" t="n">
-        <v>275023.154088871</v>
+        <v>273676.7101926566</v>
       </c>
       <c r="O6" t="n">
-        <v>114821.5307011743</v>
+        <v>15.68008271838698</v>
       </c>
       <c r="P6" t="n">
-        <v>213394.4033271531</v>
+        <v>270970.6393252691</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F2" t="n">
+        <v>367.2890446813954</v>
+      </c>
+      <c r="G2" t="n">
         <v>381.5867174954989</v>
       </c>
-      <c r="G2" t="n">
-        <v>385.5580790162737</v>
-      </c>
       <c r="H2" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="I2" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="J2" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="K2" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="L2" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="M2" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="N2" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="O2" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="P2" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F2" t="n">
-        <v>60.7444975663247</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.971361520774792</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.1263608420747</v>
+        <v>352.9913718672919</v>
       </c>
       <c r="K2" t="n">
-        <v>125.4603566534242</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.93908449310595</v>
+        <v>28.59534562820704</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>179.7351945319876</v>
+        <v>338.6936990531884</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="K2" t="n">
-        <v>60.7444975663247</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.971361520774792</v>
+        <v>14.29767281410352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>256.1263608420747</v>
+        <v>352.9913718672919</v>
       </c>
       <c r="P2" t="n">
-        <v>125.4603566534242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="C11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="D11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="E11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="G11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -28147,16 +28149,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>320.8422199291742</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="12">
@@ -28324,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="C14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="E14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="G14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -28390,10 +28392,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="15">
@@ -28561,22 +28563,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="C17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="F17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="G17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -28627,10 +28629,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="Y17" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
     </row>
     <row r="18">
@@ -28798,22 +28800,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="C20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="F20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="G20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -28864,10 +28866,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
     </row>
     <row r="21">
@@ -29035,22 +29037,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="C23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="F23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="G23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -29101,10 +29103,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
     </row>
     <row r="24">
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="C26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="D26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="E26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="G26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -29332,16 +29334,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>320.8422199291742</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="Y26" t="n">
-        <v>320.8422199291742</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="27">
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="C29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="E29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="G29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -29575,10 +29577,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="Y29" t="n">
-        <v>385.5580790162737</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="30">
@@ -29746,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="F32" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="G32" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -29812,10 +29814,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
     </row>
     <row r="33">
@@ -29983,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="F35" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="G35" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -30049,10 +30051,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
     </row>
     <row r="36">
@@ -30220,22 +30222,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="F38" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="G38" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -30286,10 +30288,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>381.5867174954989</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="C41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="D41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="E41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="G41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="H41" t="n">
-        <v>316.1346356785177</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -30517,16 +30519,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>316.1346356785177</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="Y41" t="n">
-        <v>316.1346356785177</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="C44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="D44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="E44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="F44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="G44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="H44" t="n">
-        <v>190.6742790250935</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -30748,22 +30750,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>190.6742790250935</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>190.6742790250935</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>190.6742790250935</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="Y44" t="n">
-        <v>190.6742790250935</v>
+        <v>367.2890446813954</v>
       </c>
     </row>
     <row r="45">
@@ -30830,13 +30832,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>190.6742790250935</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>190.6742790250935</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>190.6742790250935</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -30903,25 +30905,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>190.6742790250935</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>190.6742790250935</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>190.6742790250935</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>190.6742790250935</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>190.6742790250935</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>190.6742790250935</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.6742790250935</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
